--- a/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
@@ -918,7 +918,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -3529,13 +3529,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A228:B228"/>
     <mergeCell ref="A231:B231"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A174:B174"/>
@@ -3548,8 +3541,15 @@
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A163:C163"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A228:B228"/>
     <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A204:B204"/>
     <mergeCell ref="A197:B197"/>
   </mergeCells>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
@@ -918,7 +918,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -3529,6 +3529,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A228:B228"/>
     <mergeCell ref="A231:B231"/>
     <mergeCell ref="A233:B233"/>
     <mergeCell ref="A174:B174"/>
@@ -3541,15 +3548,8 @@
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A159:B159"/>
     <mergeCell ref="A163:C163"/>
-    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A168:B168"/>
     <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A168:B168"/>
     <mergeCell ref="A197:B197"/>
   </mergeCells>
   <hyperlinks>

--- a/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
+++ b/datastatic/datasets/online/SDG16_Intential_Homocides_World_Bank_2014.xlsx
@@ -3294,7 +3294,9 @@
       <c r="A213" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B213" s="14"/>
+      <c r="B213" s="16">
+        <v>4.3</v>
+      </c>
       <c r="C213" s="14"/>
       <c r="D213" s="13">
         <v>4.3</v>
